--- a/data/state-of-practice/data-extraction-ira.xlsx
+++ b/data/state-of-practice/data-extraction-ira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juf\Workspace\BTH\Data Processing\b4c\data\state-of-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7DEAA5-03E0-4285-AA69-E70221E467F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541934B3-BABF-4B7D-BE07-A64E33384511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14805" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14805" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -234,18 +234,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>GUI test specification approach/technique</t>
-  </si>
-  <si>
-    <t>[Slang; JBehave]</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>"time per test case was accumulated per participant and divided by the number of fully and correctly specified test cases to compute the average time per test case"</t>
-  </si>
-  <si>
     <t>GLMM</t>
   </si>
   <si>
@@ -253,9 +241,6 @@
   </si>
   <si>
     <t>Reachable</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/scl/fo/jp4qi7xgiamxb5z45ggjl/ACK1ECptEMJ0UN0C3a4JqV8?rlkey=w4lnd0007dlzvv29mv7oifpe3&amp;e=1&amp;dl=0</t>
   </si>
   <si>
     <t>Tool version</t>
@@ -366,15 +351,6 @@
   </si>
   <si>
     <t>They call their method a "Linear Marginal Model" (LMM) ut describe it as "LMMs are linear models in which the residuals are not assumed to be independent of each other or have constant variance", which are GLMMs. The authors acknowledge a "training leakage effect", which sounds like the period threat.</t>
-  </si>
-  <si>
-    <t>BDD DSL</t>
-  </si>
-  <si>
-    <t>JBehave;Slang</t>
-  </si>
-  <si>
-    <t>time for correctly specified test case</t>
   </si>
   <si>
     <t>[Tab version; Panel version]</t>
@@ -841,17 +817,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -884,6 +849,17 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3385,7 +3361,7 @@
       </c>
       <c r="E65" s="5">
         <f ca="1">IF(C65, COUNTIF(Extraction!A:A, A65), "-")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="7" t="b">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("(COUNTIF(IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1XUJGjtfB9SoW1rbohdkE9Z52MKac6AJzLHIsCSLTjGo/edit#gid=0"", ""Overlap!A2:A15""), A65)&gt;0)"),TRUE)</f>
@@ -3397,7 +3373,7 @@
       </c>
       <c r="H65" s="8">
         <f ca="1">IF(AND(C65,F65), COUNTIF(Overlap!A:A, A65), "-")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="6"/>
     </row>
@@ -5897,13 +5873,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S155"/>
+  <dimension ref="A1:S154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5924,61 +5900,61 @@
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="50"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="39"/>
+      <c r="R2" s="50"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -6001,10 +5977,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -6025,16 +6001,16 @@
         <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>15</v>
@@ -6191,7 +6167,7 @@
         <v>54</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>54</v>
@@ -6262,52 +6238,52 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B8" s="8" t="str">
         <f ca="1">IF(ISBLANK(A8), "", VLOOKUP(A8, Studies!A:D, 4))</f>
-        <v>jfr</v>
+        <v>dfu</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G8" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="K8" s="5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>67</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="P8" s="9"/>
       <c r="Q8" s="5" t="s">
         <v>41</v>
       </c>
@@ -6316,11 +6292,11 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B9" s="8" t="str">
         <f ca="1">IF(ISBLANK(A9), "", VLOOKUP(A9, Studies!A:D, 4))</f>
-        <v>dfu</v>
+        <v>jfr</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>68</v>
@@ -6335,17 +6311,15 @@
         <v>71</v>
       </c>
       <c r="G9" s="6">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>72</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="J9" s="11"/>
       <c r="K9" s="5" t="s">
         <v>40</v>
       </c>
@@ -6353,75 +6327,81 @@
         <v>40</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="Q9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="R9" s="10"/>
-      <c r="S9" s="6"/>
+      <c r="S9" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B10" s="8" t="str">
         <f ca="1">IF(ISBLANK(A10), "", VLOOKUP(A10, Studies!A:D, 4))</f>
         <v>jfr</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" s="6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="S10" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -6433,32 +6413,32 @@
         <v>jfr</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G11" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>39</v>
@@ -6467,20 +6447,18 @@
         <v>40</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>86</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -6491,32 +6469,32 @@
         <v>jfr</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G12" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>39</v>
@@ -6525,77 +6503,40 @@
         <v>40</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>116</v>
-      </c>
-      <c r="B13" s="8" t="str">
-        <f ca="1">IF(ISBLANK(A13), "", VLOOKUP(A13, Studies!A:D, 4))</f>
-        <v>jfr</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="6">
-        <v>11</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="10"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
       <c r="B14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="6"/>
@@ -9274,25 +9215,6 @@
       <c r="R154" s="10"/>
       <c r="S154" s="6"/>
     </row>
-    <row r="155" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B155" s="8"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="8"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="9"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="10"/>
-      <c r="S155" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="O2:P2"/>
@@ -9306,49 +9228,66 @@
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:N155" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:N154" xr:uid="{19612D46-DB6E-40E8-BEE4-2EEEE9D5D957}">
       <formula1>"Parameter,Stratification,Isolation,Acknowledged,Ignored"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B4:B155" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B4:B154" xr:uid="{EB1A602E-B098-496A-B27E-2626E502781F}">
       <formula1>"dfu,jfr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O155 Q4:Q155" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q4:Q154 O4:O154" xr:uid="{A6C322F2-1ADE-4DF5-9F55-4FC7BDAA010B}">
       <formula1>"Archived,Open Source,Reachable,Upon Request,Broken,Unavailable,Private,Proprietary"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="P5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="R5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P8" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="P10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P11" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="R11" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P12" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="R12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="R13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="P9" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="P10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="R10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P11" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="R11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="R12" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{073F4C58-C1A9-4492-9A7C-C5DB1635329B}">
           <x14:formula1>
             <xm:f>CategoriesMethod!$A$2:$A155</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I155</xm:sqref>
+          <xm:sqref>I4:I7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{D44CC31F-0E55-4D96-97AD-D292AD270879}">
+          <x14:formula1>
+            <xm:f>CategoriesMethod!$A$2:$A160</xm:f>
+          </x14:formula1>
+          <xm:sqref>I8:I154</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{1DAC8103-41B2-47F7-BF7A-58541B614BC0}">
           <x14:formula1>
             <xm:f>CategoriesTesttype!$A$2:$A155</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J155</xm:sqref>
+          <xm:sqref>J4:J7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{80AB2DD4-D39A-4F4A-A39A-019DD8450586}">
+          <x14:formula1>
+            <xm:f>CategoriesTesttype!$A$2:$A160</xm:f>
+          </x14:formula1>
+          <xm:sqref>J8:J154</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{EC2E614D-A2B8-4A85-88A3-A922BE03163F}">
           <x14:formula1>
             <xm:f>CategoriesSubjects!$A$2:$A155</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H155</xm:sqref>
+          <xm:sqref>H4:H7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{07BDD346-8D30-480D-95CC-A288506144DC}">
+          <x14:formula1>
+            <xm:f>CategoriesSubjects!$A$2:$A160</xm:f>
+          </x14:formula1>
+          <xm:sqref>H8:H154</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9361,13 +9300,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S153"/>
+  <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9388,67 +9327,67 @@
     <col min="19" max="19" width="50.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="50"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="39"/>
+      <c r="R2" s="50"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -9468,10 +9407,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -9492,16 +9431,16 @@
         <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>15</v>
@@ -9516,18 +9455,18 @@
         <v>jfr</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -9560,27 +9499,27 @@
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="52.8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G5" s="6">
         <v>105</v>
@@ -9620,7 +9559,7 @@
       </c>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>14</v>
       </c>
@@ -9629,16 +9568,16 @@
         <v>jfr</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G6" s="6">
         <v>21</v>
@@ -9673,10 +9612,10 @@
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>48</v>
       </c>
@@ -9685,16 +9624,16 @@
         <v>jfr</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G7" s="6">
         <v>18</v>
@@ -9703,7 +9642,7 @@
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="5" t="s">
@@ -9727,92 +9666,90 @@
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>64</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>92</v>
+        <v>71</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f ca="1">IF(ISBLANK(A8), "", IF(VLOOKUP(A8, Studies!A:D, 2)="jfr", "dfu", "jfr"))</f>
+        <v>jfr</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="K8" s="5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>67</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="P8" s="9"/>
       <c r="Q8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>71</v>
-      </c>
-      <c r="B9" s="8" t="str">
-        <f ca="1">IF(ISBLANK(A9), "", IF(VLOOKUP(A9, Studies!A:D, 2)="jfr", "dfu", "jfr"))</f>
-        <v>jfr</v>
+        <v>77</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>103</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="G9" s="6">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="11" t="s">
         <v>72</v>
       </c>
+      <c r="J9" s="11"/>
       <c r="K9" s="5" t="s">
         <v>40</v>
       </c>
@@ -9820,15 +9757,17 @@
         <v>40</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="Q9" s="5" t="s">
         <v>41</v>
       </c>
@@ -9836,222 +9775,189 @@
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="37">
+        <v>116</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="6">
-        <v>14</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="37">
+        <v>18</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="S10" s="39"/>
+    </row>
+    <row r="11" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37">
+        <v>116</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="F11" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="37">
+        <v>10</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" s="39"/>
+    </row>
+    <row r="12" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37">
+        <v>116</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="5" t="s">
+      <c r="F12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="37">
+        <v>11</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
-        <v>116</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="42">
-        <v>18</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="M11" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="R11" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="S11" s="44"/>
-    </row>
-    <row r="12" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
-        <v>116</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="42">
-        <v>10</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="S12" s="44"/>
-    </row>
-    <row r="13" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
-        <v>116</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="42">
-        <v>11</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="S13" s="44"/>
+      <c r="O12" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" s="39"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -12833,26 +12739,6 @@
       <c r="R152" s="10"/>
       <c r="S152" s="6"/>
     </row>
-    <row r="153" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="8"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="8"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="9"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="10"/>
-      <c r="S153" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="K2:N2"/>
@@ -12866,49 +12752,66 @@
     <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:N10 K14:N153" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K13:N152 K4:N9" xr:uid="{55F6383A-0435-48B9-82D1-7A71BED1C8E8}">
       <formula1>"Parameter,Stratification,Isolation,Acknowledged,Ignored"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B4:B10 B14:B153" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B13:B152 B4:B9" xr:uid="{1EAA4867-592E-4C8D-A495-F9B5EA829E07}">
       <formula1>"jfr,dju"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q14:Q153 Q4:Q10 O4:O10 O14:O153" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q13:Q152 O13:O152 O4:O9 Q4:Q9" xr:uid="{715A81E0-7679-436E-B3CA-3B4E3A80E662}">
       <formula1>"Archived,Open Source,Reachable,Upon Request,Broken,Unavailable,Private,Proprietary"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="P5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="R5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="P8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="P10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="P11" r:id="rId5" xr:uid="{1F705E6F-0CA7-4E95-88B0-906F755E9970}"/>
-    <hyperlink ref="R11" r:id="rId6" xr:uid="{7C29CFA5-2B26-49A5-89F7-E7E213727DBC}"/>
-    <hyperlink ref="P12" r:id="rId7" xr:uid="{06584F44-8A0F-4FA0-A7CB-4E61D2513A81}"/>
-    <hyperlink ref="R12" r:id="rId8" xr:uid="{DD662DB1-F711-44C3-980D-CDFCC4228A07}"/>
-    <hyperlink ref="P13" r:id="rId9" xr:uid="{B60DD6E6-A92A-4E21-A963-C6263F6ACB57}"/>
-    <hyperlink ref="R13" r:id="rId10" xr:uid="{18C88E5A-FA6A-42AC-9EA3-60248BE82BB5}"/>
+    <hyperlink ref="P9" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="P10" r:id="rId4" xr:uid="{1F705E6F-0CA7-4E95-88B0-906F755E9970}"/>
+    <hyperlink ref="R10" r:id="rId5" xr:uid="{7C29CFA5-2B26-49A5-89F7-E7E213727DBC}"/>
+    <hyperlink ref="P11" r:id="rId6" xr:uid="{06584F44-8A0F-4FA0-A7CB-4E61D2513A81}"/>
+    <hyperlink ref="R11" r:id="rId7" xr:uid="{DD662DB1-F711-44C3-980D-CDFCC4228A07}"/>
+    <hyperlink ref="P12" r:id="rId8" xr:uid="{B60DD6E6-A92A-4E21-A963-C6263F6ACB57}"/>
+    <hyperlink ref="R12" r:id="rId9" xr:uid="{18C88E5A-FA6A-42AC-9EA3-60248BE82BB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{2B70BF8B-5E01-47CB-9162-FA992D914D6D}">
+          <x14:formula1>
+            <xm:f>CategoriesMethod!$A$2:$A158</xm:f>
+          </x14:formula1>
+          <xm:sqref>I13:I152 I8:I9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{67364343-0C37-4F15-BF25-F3FFB0394B92}">
+          <x14:formula1>
+            <xm:f>CategoriesTesttype!$A$2:$A158</xm:f>
+          </x14:formula1>
+          <xm:sqref>J13:J152 J8:J9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{BA3F6FE9-EBB2-469A-9A33-10767DDBC5D5}">
+          <x14:formula1>
+            <xm:f>CategoriesSubjects!$A$2:$A158</xm:f>
+          </x14:formula1>
+          <xm:sqref>H13:H152 H8:H9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{10C920C0-13D7-4795-AD0F-F55F3727E73C}">
           <x14:formula1>
             <xm:f>CategoriesMethod!$A$2:$A153</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I10 I14:I153</xm:sqref>
+          <xm:sqref>I4:I7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{31790532-A3DC-4C2B-9CB6-A77591A66FA5}">
           <x14:formula1>
             <xm:f>CategoriesTesttype!$A$2:$A153</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J10 J14:J153</xm:sqref>
+          <xm:sqref>J4:J7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{682CB3F6-8F2D-4B32-9E94-1E068FF624EC}">
           <x14:formula1>
             <xm:f>CategoriesSubjects!$A$2:$A153</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H10 H14:H153</xm:sqref>
+          <xm:sqref>H4:H7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12933,78 +12836,78 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+        <v>110</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C3" s="20">
         <f ca="1">SUMPRODUCT((Studies!D:D = A3) * (Studies!C:C = TRUE))</f>
@@ -13020,7 +12923,7 @@
       </c>
       <c r="F3" s="20">
         <f ca="1">SUMPRODUCT((Studies!D:D = A3) * (Studies!C:C = TRUE) * (Studies!E:E &gt; 0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="21">
         <f ca="1">SUMPRODUCT((Studies!G:G = A3) * (Studies!C:C = TRUE) * (Studies!H:H &gt; 0))</f>
@@ -13028,11 +12931,11 @@
       </c>
       <c r="H3" s="22">
         <f t="shared" ref="H3:H5" ca="1" si="1">F3+G3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="23">
         <f t="shared" ref="I3:K3" ca="1" si="2">F3/C3</f>
-        <v>0.14285714285714285</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="J3" s="24">
         <f t="shared" ca="1" si="2"/>
@@ -13040,11 +12943,11 @@
       </c>
       <c r="K3" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <v>0.21875</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:M3" ca="1" si="3">C3-F3</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="21">
         <f t="shared" ca="1" si="3"/>
@@ -13052,15 +12955,15 @@
       </c>
       <c r="N3" s="22">
         <f t="shared" ref="N3:N5" ca="1" si="4">L3+M3</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C4" s="20">
         <f ca="1">SUMPRODUCT((Studies!D:D = A4) * (Studies!C:C = TRUE))</f>
@@ -13080,11 +12983,11 @@
       </c>
       <c r="G4" s="21">
         <f ca="1">SUMPRODUCT((Studies!G:G = A4) * (Studies!C:C = TRUE) * (Studies!H:H &gt; 0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="23">
         <f t="shared" ref="I4:K4" ca="1" si="5">F4/C4</f>
@@ -13092,11 +12995,11 @@
       </c>
       <c r="J4" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23529411764705882</v>
+        <v>0.20588235294117646</v>
       </c>
       <c r="L4" s="20">
         <f t="shared" ref="L4:M4" ca="1" si="6">C4-F4</f>
@@ -13104,11 +13007,11 @@
       </c>
       <c r="M4" s="21">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -13128,39 +13031,39 @@
       </c>
       <c r="F5" s="27">
         <f t="shared" ref="F5:G5" ca="1" si="8">SUM(F3:F4)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" s="30">
         <f t="shared" ref="I5:M5" ca="1" si="9">SUM(I3:I4)</f>
-        <v>0.27619047619047621</v>
+        <v>0.24047619047619045</v>
       </c>
       <c r="J5" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K5" s="32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48529411764705882</v>
+        <v>0.42463235294117646</v>
       </c>
       <c r="L5" s="27">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -13242,10 +13145,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13260,7 +13163,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5">
@@ -13280,7 +13183,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5">
@@ -13323,16 +13226,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13340,10 +13243,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D2" s="5">
         <f>COUNTIF(Extraction!I:I, A2)</f>
@@ -13352,13 +13255,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D3" s="5">
         <f>COUNTIF(Extraction!I:I, A3)</f>
@@ -13367,28 +13270,28 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D4" s="5">
         <f>COUNTIF(Extraction!I:I, A4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D5" s="5">
         <f>COUNTIF(Extraction!I:I, A5)</f>
@@ -13401,7 +13304,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D6" s="5">
         <f>COUNTIF(Extraction!I:I, A6)</f>
@@ -13410,11 +13313,11 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D7" s="5">
         <f>COUNTIF(Extraction!I:I, A7)</f>
@@ -13456,18 +13359,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5">
@@ -13477,7 +13380,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5">
@@ -13507,7 +13410,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="5">

--- a/data/state-of-practice/data-extraction-ira.xlsx
+++ b/data/state-of-practice/data-extraction-ira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juf\Workspace\BTH\Data Processing\b4c\data\state-of-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541934B3-BABF-4B7D-BE07-A64E33384511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADA64C-E4ED-4BA8-A312-565518C491C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14805" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,6 @@
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
     <sheet name="Extraction" sheetId="2" r:id="rId2"/>
     <sheet name="Overlap" sheetId="3" r:id="rId3"/>
-    <sheet name="Progress" sheetId="4" r:id="rId4"/>
-    <sheet name="CategoriesSubjects" sheetId="5" r:id="rId5"/>
-    <sheet name="CategoriesMethod" sheetId="6" r:id="rId6"/>
-    <sheet name="CategoriesTesttype" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Studies!$F$1:$F$137</definedName>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -96,9 +92,6 @@
   </si>
   <si>
     <t>Response Variables</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Method</t>
@@ -315,9 +308,6 @@
     <t>Unknown subject number, but they report to have collected 130 completed workbooks</t>
   </si>
   <si>
-    <t>dju</t>
-  </si>
-  <si>
     <t>API design rules</t>
   </si>
   <si>
@@ -383,96 +373,6 @@
     <t>https://www.dropbox.com/sh/f0kbsf48yp2kqpc/AABu-29kDs9iIxci-0KaqDl4a?dl=0</t>
   </si>
   <si>
-    <t>Acronym</t>
-  </si>
-  <si>
-    <t>Rater</t>
-  </si>
-  <si>
-    <t>Assignment</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Remaining</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>jfr</t>
-  </si>
-  <si>
-    <t>Julian Frattini</t>
-  </si>
-  <si>
-    <t>dfu</t>
-  </si>
-  <si>
-    <t>Davide Fucci</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Practitioners</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Null-hypothesis significance test</t>
-  </si>
-  <si>
-    <t>One- or two-tailed test of statistically significant difference in the distribution of the response variable stratified by the levels of the main factor</t>
-  </si>
-  <si>
-    <t>GLM</t>
-  </si>
-  <si>
-    <t>Generalized Linear Model</t>
-  </si>
-  <si>
-    <t>Fixed-effects linear model, based on the maximum likelihood theory of independent observations</t>
-  </si>
-  <si>
-    <t>Generalized Linear Mixed Model</t>
-  </si>
-  <si>
-    <t>GLM, including random effects</t>
-  </si>
-  <si>
-    <t>GEE</t>
-  </si>
-  <si>
-    <t>Generalized Estimating Equation</t>
-  </si>
-  <si>
-    <t>Parameter estimation of a GLM with a possibly unmeasured correlation based on quasi-likelihood theory with no assumption about the distribution of the response variable [2].</t>
-  </si>
-  <si>
-    <t>Any other method</t>
-  </si>
-  <si>
-    <t>Method not mentioned</t>
-  </si>
-  <si>
-    <t>Unpaired T</t>
-  </si>
-  <si>
-    <t>Paired T</t>
-  </si>
-  <si>
     <t>Subject-Number</t>
   </si>
   <si>
@@ -493,15 +393,15 @@
   <si>
     <t>Modeled</t>
   </si>
+  <si>
+    <t>rater2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -538,30 +438,6 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -617,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,20 +506,8 @@
         <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -674,15 +538,6 @@
       <right style="dotted">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -735,9 +590,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -767,49 +622,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -817,49 +629,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1156,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1214,8 +1023,8 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1XUJGjtfB9SoW1rbohdkE9Z52MKac6AJzLHIsCSLTjGo/edit#gid=0"", ""Primary Studies!C2:C137"")"),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1XUJGjtfB9SoW1rbohdkE9Z52MKac6AJzLHIsCSLTjGo/edit#gid=0"", ""Primary Studies!C2:C137"")"),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E2" s="5" t="str">
         <f ca="1">IF(C2, COUNTIF(Extraction!A:A, A2), "-")</f>
@@ -1226,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f t="shared" ref="G2:G137" ca="1" si="0">IF(OR(NOT(C2), NOT(F2)), " ", IF(D2="jfr","dfu","jfr"))</f>
+        <f ca="1">IF(OR(NOT(C2), NOT(F2)), " ", IF(D2="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H2" s="8" t="str">
@@ -1248,8 +1057,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E3" s="5" t="str">
         <f ca="1">IF(C3, COUNTIF(Extraction!A:A, A3), "-")</f>
@@ -1260,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C3), NOT(F3)), " ", IF(D3="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H3" s="8" t="str">
@@ -1282,8 +1091,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E4" s="5" t="str">
         <f ca="1">IF(C4, COUNTIF(Extraction!A:A, A4), "-")</f>
@@ -1294,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C4), NOT(F4)), " ", IF(D4="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H4" s="8" t="str">
@@ -1316,8 +1125,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E5" s="5">
         <f ca="1">IF(C5, COUNTIF(Extraction!A:A, A5), "-")</f>
@@ -1328,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C5), NOT(F5)), " ", IF(D5="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H5" s="8" t="str">
@@ -1350,8 +1159,8 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E6" s="5" t="str">
         <f ca="1">IF(C6, COUNTIF(Extraction!A:A, A6), "-")</f>
@@ -1362,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C6), NOT(F6)), " ", IF(D6="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="8" t="str">
@@ -1384,8 +1193,8 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E7" s="5">
         <f ca="1">IF(C7, COUNTIF(Extraction!A:A, A7), "-")</f>
@@ -1396,8 +1205,8 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>jfr</v>
+        <f ca="1">IF(OR(NOT(C7), NOT(F7)), " ", IF(D7="rater1","rater2","rater1"))</f>
+        <v>rater1</v>
       </c>
       <c r="H7" s="8">
         <f ca="1">IF(AND(C7,F7), COUNTIF(Overlap!A:A, A7), "-")</f>
@@ -1418,8 +1227,8 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E8" s="5">
         <f ca="1">IF(C8, COUNTIF(Extraction!A:A, A8), "-")</f>
@@ -1430,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C8), NOT(F8)), " ", IF(D8="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H8" s="8" t="str">
@@ -1452,8 +1261,8 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E9" s="5" t="str">
         <f ca="1">IF(C9, COUNTIF(Extraction!A:A, A9), "-")</f>
@@ -1464,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C9), NOT(F9)), " ", IF(D9="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H9" s="8" t="str">
@@ -1486,8 +1295,8 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E10" s="5">
         <f ca="1">IF(C10, COUNTIF(Extraction!A:A, A10), "-")</f>
@@ -1498,8 +1307,8 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>dfu</v>
+        <f ca="1">IF(OR(NOT(C10), NOT(F10)), " ", IF(D10="rater1","rater2","rater1"))</f>
+        <v>rater2</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">IF(AND(C10,F10), COUNTIF(Overlap!A:A, A10), "-")</f>
@@ -1520,8 +1329,8 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E11" s="5">
         <f ca="1">IF(C11, COUNTIF(Extraction!A:A, A11), "-")</f>
@@ -1532,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C11), NOT(F11)), " ", IF(D11="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H11" s="8" t="str">
@@ -1554,8 +1363,8 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E12" s="5">
         <f ca="1">IF(C12, COUNTIF(Extraction!A:A, A12), "-")</f>
@@ -1566,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C12), NOT(F12)), " ", IF(D12="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H12" s="8" t="str">
@@ -1588,8 +1397,8 @@
         <v>0</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E13" s="5" t="str">
         <f ca="1">IF(C13, COUNTIF(Extraction!A:A, A13), "-")</f>
@@ -1600,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C13), NOT(F13)), " ", IF(D13="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H13" s="8" t="str">
@@ -1622,8 +1431,8 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E14" s="5" t="str">
         <f ca="1">IF(C14, COUNTIF(Extraction!A:A, A14), "-")</f>
@@ -1634,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C14), NOT(F14)), " ", IF(D14="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H14" s="8" t="str">
@@ -1656,8 +1465,8 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E15" s="5">
         <f ca="1">IF(C15, COUNTIF(Extraction!A:A, A15), "-")</f>
@@ -1668,8 +1477,8 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>jfr</v>
+        <f ca="1">IF(OR(NOT(C15), NOT(F15)), " ", IF(D15="rater1","rater2","rater1"))</f>
+        <v>rater1</v>
       </c>
       <c r="H15" s="8">
         <f ca="1">IF(AND(C15,F15), COUNTIF(Overlap!A:A, A15), "-")</f>
@@ -1690,8 +1499,8 @@
         <v>0</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E16" s="5" t="str">
         <f ca="1">IF(C16, COUNTIF(Extraction!A:A, A16), "-")</f>
@@ -1702,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C16), NOT(F16)), " ", IF(D16="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H16" s="8" t="str">
@@ -1724,8 +1533,8 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E17" s="5" t="str">
         <f ca="1">IF(C17, COUNTIF(Extraction!A:A, A17), "-")</f>
@@ -1736,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C17), NOT(F17)), " ", IF(D17="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H17" s="8" t="str">
@@ -1758,8 +1567,8 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E18" s="5" t="str">
         <f ca="1">IF(C18, COUNTIF(Extraction!A:A, A18), "-")</f>
@@ -1770,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C18), NOT(F18)), " ", IF(D18="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H18" s="8" t="str">
@@ -1792,8 +1601,8 @@
         <v>0</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E19" s="5" t="str">
         <f ca="1">IF(C19, COUNTIF(Extraction!A:A, A19), "-")</f>
@@ -1804,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C19), NOT(F19)), " ", IF(D19="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H19" s="8" t="str">
@@ -1826,8 +1635,8 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E20" s="5" t="str">
         <f ca="1">IF(C20, COUNTIF(Extraction!A:A, A20), "-")</f>
@@ -1838,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C20), NOT(F20)), " ", IF(D20="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H20" s="8" t="str">
@@ -1860,8 +1669,8 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E21" s="5">
         <f ca="1">IF(C21, COUNTIF(Extraction!A:A, A21), "-")</f>
@@ -1872,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C21), NOT(F21)), " ", IF(D21="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H21" s="8" t="str">
@@ -1894,8 +1703,8 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E22" s="5" t="str">
         <f ca="1">IF(C22, COUNTIF(Extraction!A:A, A22), "-")</f>
@@ -1906,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C22), NOT(F22)), " ", IF(D22="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H22" s="8" t="str">
@@ -1928,8 +1737,8 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E23" s="5" t="str">
         <f ca="1">IF(C23, COUNTIF(Extraction!A:A, A23), "-")</f>
@@ -1940,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C23), NOT(F23)), " ", IF(D23="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H23" s="8" t="str">
@@ -1962,8 +1771,8 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E24" s="5" t="str">
         <f ca="1">IF(C24, COUNTIF(Extraction!A:A, A24), "-")</f>
@@ -1974,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C24), NOT(F24)), " ", IF(D24="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H24" s="8" t="str">
@@ -1996,8 +1805,8 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E25" s="5">
         <f ca="1">IF(C25, COUNTIF(Extraction!A:A, A25), "-")</f>
@@ -2008,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C25), NOT(F25)), " ", IF(D25="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H25" s="8" t="str">
@@ -2030,8 +1839,8 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E26" s="5" t="str">
         <f ca="1">IF(C26, COUNTIF(Extraction!A:A, A26), "-")</f>
@@ -2042,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C26), NOT(F26)), " ", IF(D26="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H26" s="8" t="str">
@@ -2064,8 +1873,8 @@
         <v>1</v>
       </c>
       <c r="D27" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E27" s="5">
         <f ca="1">IF(C27, COUNTIF(Extraction!A:A, A27), "-")</f>
@@ -2076,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C27), NOT(F27)), " ", IF(D27="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H27" s="8" t="str">
@@ -2098,8 +1907,8 @@
         <v>1</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E28" s="5">
         <f ca="1">IF(C28, COUNTIF(Extraction!A:A, A28), "-")</f>
@@ -2110,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C28), NOT(F28)), " ", IF(D28="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H28" s="8" t="str">
@@ -2132,8 +1941,8 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E29" s="5" t="str">
         <f ca="1">IF(C29, COUNTIF(Extraction!A:A, A29), "-")</f>
@@ -2144,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C29), NOT(F29)), " ", IF(D29="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H29" s="8" t="str">
@@ -2166,8 +1975,8 @@
         <v>1</v>
       </c>
       <c r="D30" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E30" s="5">
         <f ca="1">IF(C30, COUNTIF(Extraction!A:A, A30), "-")</f>
@@ -2178,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C30), NOT(F30)), " ", IF(D30="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H30" s="8" t="str">
@@ -2200,8 +2009,8 @@
         <v>1</v>
       </c>
       <c r="D31" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E31" s="5">
         <f ca="1">IF(C31, COUNTIF(Extraction!A:A, A31), "-")</f>
@@ -2212,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C31), NOT(F31)), " ", IF(D31="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H31" s="8" t="str">
@@ -2234,8 +2043,8 @@
         <v>1</v>
       </c>
       <c r="D32" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E32" s="5">
         <f ca="1">IF(C32, COUNTIF(Extraction!A:A, A32), "-")</f>
@@ -2246,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C32), NOT(F32)), " ", IF(D32="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H32" s="8" t="str">
@@ -2268,8 +2077,8 @@
         <v>1</v>
       </c>
       <c r="D33" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E33" s="5">
         <f ca="1">IF(C33, COUNTIF(Extraction!A:A, A33), "-")</f>
@@ -2280,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C33), NOT(F33)), " ", IF(D33="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H33" s="8" t="str">
@@ -2302,8 +2111,8 @@
         <v>0</v>
       </c>
       <c r="D34" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E34" s="5" t="str">
         <f ca="1">IF(C34, COUNTIF(Extraction!A:A, A34), "-")</f>
@@ -2314,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C34), NOT(F34)), " ", IF(D34="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H34" s="8" t="str">
@@ -2336,8 +2145,8 @@
         <v>0</v>
       </c>
       <c r="D35" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E35" s="5" t="str">
         <f ca="1">IF(C35, COUNTIF(Extraction!A:A, A35), "-")</f>
@@ -2348,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C35), NOT(F35)), " ", IF(D35="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H35" s="8" t="str">
@@ -2370,8 +2179,8 @@
         <v>1</v>
       </c>
       <c r="D36" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E36" s="5">
         <f ca="1">IF(C36, COUNTIF(Extraction!A:A, A36), "-")</f>
@@ -2382,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C36), NOT(F36)), " ", IF(D36="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H36" s="8" t="str">
@@ -2404,8 +2213,8 @@
         <v>1</v>
       </c>
       <c r="D37" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E37" s="5">
         <f ca="1">IF(C37, COUNTIF(Extraction!A:A, A37), "-")</f>
@@ -2416,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C37), NOT(F37)), " ", IF(D37="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H37" s="8" t="str">
@@ -2438,8 +2247,8 @@
         <v>1</v>
       </c>
       <c r="D38" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E38" s="5">
         <f ca="1">IF(C38, COUNTIF(Extraction!A:A, A38), "-")</f>
@@ -2450,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C38), NOT(F38)), " ", IF(D38="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H38" s="8" t="str">
@@ -2472,8 +2281,8 @@
         <v>1</v>
       </c>
       <c r="D39" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E39" s="5">
         <f ca="1">IF(C39, COUNTIF(Extraction!A:A, A39), "-")</f>
@@ -2484,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C39), NOT(F39)), " ", IF(D39="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H39" s="8" t="str">
@@ -2506,8 +2315,8 @@
         <v>1</v>
       </c>
       <c r="D40" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E40" s="5">
         <f ca="1">IF(C40, COUNTIF(Extraction!A:A, A40), "-")</f>
@@ -2518,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C40), NOT(F40)), " ", IF(D40="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H40" s="8" t="str">
@@ -2540,8 +2349,8 @@
         <v>0</v>
       </c>
       <c r="D41" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E41" s="5" t="str">
         <f ca="1">IF(C41, COUNTIF(Extraction!A:A, A41), "-")</f>
@@ -2552,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C41), NOT(F41)), " ", IF(D41="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H41" s="8" t="str">
@@ -2574,8 +2383,8 @@
         <v>0</v>
       </c>
       <c r="D42" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E42" s="5" t="str">
         <f ca="1">IF(C42, COUNTIF(Extraction!A:A, A42), "-")</f>
@@ -2586,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C42), NOT(F42)), " ", IF(D42="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H42" s="8" t="str">
@@ -2608,8 +2417,8 @@
         <v>0</v>
       </c>
       <c r="D43" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E43" s="5" t="str">
         <f ca="1">IF(C43, COUNTIF(Extraction!A:A, A43), "-")</f>
@@ -2620,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C43), NOT(F43)), " ", IF(D43="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H43" s="8" t="str">
@@ -2642,8 +2451,8 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E44" s="5">
         <f ca="1">IF(C44, COUNTIF(Extraction!A:A, A44), "-")</f>
@@ -2654,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C44), NOT(F44)), " ", IF(D44="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H44" s="8" t="str">
@@ -2676,8 +2485,8 @@
         <v>1</v>
       </c>
       <c r="D45" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E45" s="5">
         <f ca="1">IF(C45, COUNTIF(Extraction!A:A, A45), "-")</f>
@@ -2688,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C45), NOT(F45)), " ", IF(D45="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H45" s="8" t="str">
@@ -2710,8 +2519,8 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E46" s="5">
         <f ca="1">IF(C46, COUNTIF(Extraction!A:A, A46), "-")</f>
@@ -2722,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C46), NOT(F46)), " ", IF(D46="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H46" s="8" t="str">
@@ -2744,8 +2553,8 @@
         <v>0</v>
       </c>
       <c r="D47" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E47" s="5" t="str">
         <f ca="1">IF(C47, COUNTIF(Extraction!A:A, A47), "-")</f>
@@ -2756,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C47), NOT(F47)), " ", IF(D47="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H47" s="8" t="str">
@@ -2778,8 +2587,8 @@
         <v>1</v>
       </c>
       <c r="D48" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E48" s="5">
         <f ca="1">IF(C48, COUNTIF(Extraction!A:A, A48), "-")</f>
@@ -2790,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C48), NOT(F48)), " ", IF(D48="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H48" s="8" t="str">
@@ -2812,8 +2621,8 @@
         <v>1</v>
       </c>
       <c r="D49" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E49" s="5">
         <f ca="1">IF(C49, COUNTIF(Extraction!A:A, A49), "-")</f>
@@ -2824,8 +2633,8 @@
         <v>1</v>
       </c>
       <c r="G49" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>jfr</v>
+        <f ca="1">IF(OR(NOT(C49), NOT(F49)), " ", IF(D49="rater1","rater2","rater1"))</f>
+        <v>rater1</v>
       </c>
       <c r="H49" s="8">
         <f ca="1">IF(AND(C49,F49), COUNTIF(Overlap!A:A, A49), "-")</f>
@@ -2846,8 +2655,8 @@
         <v>1</v>
       </c>
       <c r="D50" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E50" s="5">
         <f ca="1">IF(C50, COUNTIF(Extraction!A:A, A50), "-")</f>
@@ -2858,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C50), NOT(F50)), " ", IF(D50="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H50" s="8" t="str">
@@ -2880,8 +2689,8 @@
         <v>1</v>
       </c>
       <c r="D51" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E51" s="5">
         <f ca="1">IF(C51, COUNTIF(Extraction!A:A, A51), "-")</f>
@@ -2892,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C51), NOT(F51)), " ", IF(D51="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H51" s="8" t="str">
@@ -2914,8 +2723,8 @@
         <v>0</v>
       </c>
       <c r="D52" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E52" s="5" t="str">
         <f ca="1">IF(C52, COUNTIF(Extraction!A:A, A52), "-")</f>
@@ -2926,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C52), NOT(F52)), " ", IF(D52="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H52" s="8" t="str">
@@ -2948,8 +2757,8 @@
         <v>0</v>
       </c>
       <c r="D53" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E53" s="5" t="str">
         <f ca="1">IF(C53, COUNTIF(Extraction!A:A, A53), "-")</f>
@@ -2960,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C53), NOT(F53)), " ", IF(D53="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H53" s="8" t="str">
@@ -2982,8 +2791,8 @@
         <v>1</v>
       </c>
       <c r="D54" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E54" s="5">
         <f ca="1">IF(C54, COUNTIF(Extraction!A:A, A54), "-")</f>
@@ -2994,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C54), NOT(F54)), " ", IF(D54="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H54" s="8" t="str">
@@ -3016,8 +2825,8 @@
         <v>1</v>
       </c>
       <c r="D55" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E55" s="5">
         <f ca="1">IF(C55, COUNTIF(Extraction!A:A, A55), "-")</f>
@@ -3028,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C55), NOT(F55)), " ", IF(D55="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H55" s="8" t="str">
@@ -3050,8 +2859,8 @@
         <v>1</v>
       </c>
       <c r="D56" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E56" s="5">
         <f ca="1">IF(C56, COUNTIF(Extraction!A:A, A56), "-")</f>
@@ -3062,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C56), NOT(F56)), " ", IF(D56="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H56" s="8" t="str">
@@ -3084,8 +2893,8 @@
         <v>1</v>
       </c>
       <c r="D57" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E57" s="5">
         <f ca="1">IF(C57, COUNTIF(Extraction!A:A, A57), "-")</f>
@@ -3096,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C57), NOT(F57)), " ", IF(D57="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H57" s="8" t="str">
@@ -3118,8 +2927,8 @@
         <v>1</v>
       </c>
       <c r="D58" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E58" s="5">
         <f ca="1">IF(C58, COUNTIF(Extraction!A:A, A58), "-")</f>
@@ -3130,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C58), NOT(F58)), " ", IF(D58="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H58" s="8" t="str">
@@ -3152,8 +2961,8 @@
         <v>0</v>
       </c>
       <c r="D59" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E59" s="5" t="str">
         <f ca="1">IF(C59, COUNTIF(Extraction!A:A, A59), "-")</f>
@@ -3164,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C59), NOT(F59)), " ", IF(D59="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H59" s="8" t="str">
@@ -3186,8 +2995,8 @@
         <v>0</v>
       </c>
       <c r="D60" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E60" s="5" t="str">
         <f ca="1">IF(C60, COUNTIF(Extraction!A:A, A60), "-")</f>
@@ -3198,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C60), NOT(F60)), " ", IF(D60="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H60" s="8" t="str">
@@ -3220,8 +3029,8 @@
         <v>1</v>
       </c>
       <c r="D61" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E61" s="5">
         <f ca="1">IF(C61, COUNTIF(Extraction!A:A, A61), "-")</f>
@@ -3232,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C61), NOT(F61)), " ", IF(D61="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H61" s="8" t="str">
@@ -3254,8 +3063,8 @@
         <v>1</v>
       </c>
       <c r="D62" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E62" s="5">
         <f ca="1">IF(C62, COUNTIF(Extraction!A:A, A62), "-")</f>
@@ -3266,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C62), NOT(F62)), " ", IF(D62="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H62" s="8" t="str">
@@ -3288,8 +3097,8 @@
         <v>1</v>
       </c>
       <c r="D63" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E63" s="5">
         <f ca="1">IF(C63, COUNTIF(Extraction!A:A, A63), "-")</f>
@@ -3300,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C63), NOT(F63)), " ", IF(D63="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H63" s="8" t="str">
@@ -3322,8 +3131,8 @@
         <v>1</v>
       </c>
       <c r="D64" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E64" s="5">
         <f ca="1">IF(C64, COUNTIF(Extraction!A:A, A64), "-")</f>
@@ -3334,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C64), NOT(F64)), " ", IF(D64="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H64" s="8" t="str">
@@ -3356,8 +3165,8 @@
         <v>1</v>
       </c>
       <c r="D65" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E65" s="5">
         <f ca="1">IF(C65, COUNTIF(Extraction!A:A, A65), "-")</f>
@@ -3368,8 +3177,8 @@
         <v>1</v>
       </c>
       <c r="G65" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>dfu</v>
+        <f ca="1">IF(OR(NOT(C65), NOT(F65)), " ", IF(D65="rater1","rater2","rater1"))</f>
+        <v>rater2</v>
       </c>
       <c r="H65" s="8">
         <f ca="1">IF(AND(C65,F65), COUNTIF(Overlap!A:A, A65), "-")</f>
@@ -3390,8 +3199,8 @@
         <v>1</v>
       </c>
       <c r="D66" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E66" s="5">
         <f ca="1">IF(C66, COUNTIF(Extraction!A:A, A66), "-")</f>
@@ -3402,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C66), NOT(F66)), " ", IF(D66="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H66" s="8" t="str">
@@ -3424,8 +3233,8 @@
         <v>1</v>
       </c>
       <c r="D67" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E67" s="5">
         <f ca="1">IF(C67, COUNTIF(Extraction!A:A, A67), "-")</f>
@@ -3436,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C67), NOT(F67)), " ", IF(D67="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H67" s="8" t="str">
@@ -3458,8 +3267,8 @@
         <v>0</v>
       </c>
       <c r="D68" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E68" s="5" t="str">
         <f ca="1">IF(C68, COUNTIF(Extraction!A:A, A68), "-")</f>
@@ -3470,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C68), NOT(F68)), " ", IF(D68="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H68" s="8" t="str">
@@ -3492,8 +3301,8 @@
         <v>0</v>
       </c>
       <c r="D69" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E69" s="5" t="str">
         <f ca="1">IF(C69, COUNTIF(Extraction!A:A, A69), "-")</f>
@@ -3504,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C69), NOT(F69)), " ", IF(D69="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H69" s="8" t="str">
@@ -3526,8 +3335,8 @@
         <v>1</v>
       </c>
       <c r="D70" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E70" s="5">
         <f ca="1">IF(C70, COUNTIF(Extraction!A:A, A70), "-")</f>
@@ -3538,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C70), NOT(F70)), " ", IF(D70="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H70" s="8" t="str">
@@ -3560,8 +3369,8 @@
         <v>0</v>
       </c>
       <c r="D71" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E71" s="5" t="str">
         <f ca="1">IF(C71, COUNTIF(Extraction!A:A, A71), "-")</f>
@@ -3572,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C71), NOT(F71)), " ", IF(D71="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H71" s="8" t="str">
@@ -3594,8 +3403,8 @@
         <v>1</v>
       </c>
       <c r="D72" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E72" s="5">
         <f ca="1">IF(C72, COUNTIF(Extraction!A:A, A72), "-")</f>
@@ -3606,8 +3415,8 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>jfr</v>
+        <f ca="1">IF(OR(NOT(C72), NOT(F72)), " ", IF(D72="rater1","rater2","rater1"))</f>
+        <v>rater1</v>
       </c>
       <c r="H72" s="8">
         <f ca="1">IF(AND(C72,F72), COUNTIF(Overlap!A:A, A72), "-")</f>
@@ -3628,8 +3437,8 @@
         <v>0</v>
       </c>
       <c r="D73" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E73" s="5" t="str">
         <f ca="1">IF(C73, COUNTIF(Extraction!A:A, A73), "-")</f>
@@ -3640,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C73), NOT(F73)), " ", IF(D73="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H73" s="8" t="str">
@@ -3662,8 +3471,8 @@
         <v>1</v>
       </c>
       <c r="D74" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E74" s="5">
         <f ca="1">IF(C74, COUNTIF(Extraction!A:A, A74), "-")</f>
@@ -3674,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C74), NOT(F74)), " ", IF(D74="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H74" s="8" t="str">
@@ -3696,8 +3505,8 @@
         <v>0</v>
       </c>
       <c r="D75" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E75" s="5" t="str">
         <f ca="1">IF(C75, COUNTIF(Extraction!A:A, A75), "-")</f>
@@ -3708,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C75), NOT(F75)), " ", IF(D75="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H75" s="8" t="str">
@@ -3730,8 +3539,8 @@
         <v>0</v>
       </c>
       <c r="D76" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E76" s="5" t="str">
         <f ca="1">IF(C76, COUNTIF(Extraction!A:A, A76), "-")</f>
@@ -3742,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C76), NOT(F76)), " ", IF(D76="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H76" s="8" t="str">
@@ -3764,8 +3573,8 @@
         <v>0</v>
       </c>
       <c r="D77" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E77" s="5" t="str">
         <f ca="1">IF(C77, COUNTIF(Extraction!A:A, A77), "-")</f>
@@ -3776,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C77), NOT(F77)), " ", IF(D77="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H77" s="8" t="str">
@@ -3798,8 +3607,8 @@
         <v>1</v>
       </c>
       <c r="D78" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E78" s="5">
         <f ca="1">IF(C78, COUNTIF(Extraction!A:A, A78), "-")</f>
@@ -3810,8 +3619,8 @@
         <v>1</v>
       </c>
       <c r="G78" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>dfu</v>
+        <f ca="1">IF(OR(NOT(C78), NOT(F78)), " ", IF(D78="rater1","rater2","rater1"))</f>
+        <v>rater2</v>
       </c>
       <c r="H78" s="8">
         <f ca="1">IF(AND(C78,F78), COUNTIF(Overlap!A:A, A78), "-")</f>
@@ -3832,8 +3641,8 @@
         <v>0</v>
       </c>
       <c r="D79" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E79" s="5" t="str">
         <f ca="1">IF(C79, COUNTIF(Extraction!A:A, A79), "-")</f>
@@ -3844,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C79), NOT(F79)), " ", IF(D79="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H79" s="8" t="str">
@@ -3866,8 +3675,8 @@
         <v>0</v>
       </c>
       <c r="D80" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E80" s="5" t="str">
         <f ca="1">IF(C80, COUNTIF(Extraction!A:A, A80), "-")</f>
@@ -3878,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C80), NOT(F80)), " ", IF(D80="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H80" s="8" t="str">
@@ -3900,8 +3709,8 @@
         <v>1</v>
       </c>
       <c r="D81" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E81" s="5">
         <f ca="1">IF(C81, COUNTIF(Extraction!A:A, A81), "-")</f>
@@ -3912,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C81), NOT(F81)), " ", IF(D81="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H81" s="8" t="str">
@@ -3934,8 +3743,8 @@
         <v>1</v>
       </c>
       <c r="D82" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E82" s="5">
         <f ca="1">IF(C82, COUNTIF(Extraction!A:A, A82), "-")</f>
@@ -3946,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C82), NOT(F82)), " ", IF(D82="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H82" s="8" t="str">
@@ -3968,8 +3777,8 @@
         <v>0</v>
       </c>
       <c r="D83" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E83" s="5" t="str">
         <f ca="1">IF(C83, COUNTIF(Extraction!A:A, A83), "-")</f>
@@ -3980,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C83), NOT(F83)), " ", IF(D83="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H83" s="8" t="str">
@@ -4002,8 +3811,8 @@
         <v>0</v>
       </c>
       <c r="D84" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E84" s="5" t="str">
         <f ca="1">IF(C84, COUNTIF(Extraction!A:A, A84), "-")</f>
@@ -4014,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C84), NOT(F84)), " ", IF(D84="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H84" s="8" t="str">
@@ -4036,8 +3845,8 @@
         <v>0</v>
       </c>
       <c r="D85" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E85" s="5" t="str">
         <f ca="1">IF(C85, COUNTIF(Extraction!A:A, A85), "-")</f>
@@ -4048,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C85), NOT(F85)), " ", IF(D85="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H85" s="8" t="str">
@@ -4070,8 +3879,8 @@
         <v>0</v>
       </c>
       <c r="D86" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E86" s="5" t="str">
         <f ca="1">IF(C86, COUNTIF(Extraction!A:A, A86), "-")</f>
@@ -4082,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C86), NOT(F86)), " ", IF(D86="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H86" s="8" t="str">
@@ -4104,8 +3913,8 @@
         <v>1</v>
       </c>
       <c r="D87" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E87" s="5">
         <f ca="1">IF(C87, COUNTIF(Extraction!A:A, A87), "-")</f>
@@ -4116,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C87), NOT(F87)), " ", IF(D87="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H87" s="8" t="str">
@@ -4138,8 +3947,8 @@
         <v>0</v>
       </c>
       <c r="D88" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E88" s="5" t="str">
         <f ca="1">IF(C88, COUNTIF(Extraction!A:A, A88), "-")</f>
@@ -4150,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C88), NOT(F88)), " ", IF(D88="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H88" s="8" t="str">
@@ -4172,8 +3981,8 @@
         <v>0</v>
       </c>
       <c r="D89" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E89" s="5" t="str">
         <f ca="1">IF(C89, COUNTIF(Extraction!A:A, A89), "-")</f>
@@ -4184,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C89), NOT(F89)), " ", IF(D89="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H89" s="8" t="str">
@@ -4206,8 +4015,8 @@
         <v>1</v>
       </c>
       <c r="D90" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E90" s="5">
         <f ca="1">IF(C90, COUNTIF(Extraction!A:A, A90), "-")</f>
@@ -4218,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C90), NOT(F90)), " ", IF(D90="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H90" s="8" t="str">
@@ -4240,8 +4049,8 @@
         <v>0</v>
       </c>
       <c r="D91" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E91" s="5" t="str">
         <f ca="1">IF(C91, COUNTIF(Extraction!A:A, A91), "-")</f>
@@ -4252,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C91), NOT(F91)), " ", IF(D91="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H91" s="8" t="str">
@@ -4274,8 +4083,8 @@
         <v>0</v>
       </c>
       <c r="D92" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E92" s="5" t="str">
         <f ca="1">IF(C92, COUNTIF(Extraction!A:A, A92), "-")</f>
@@ -4286,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C92), NOT(F92)), " ", IF(D92="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H92" s="8" t="str">
@@ -4308,8 +4117,8 @@
         <v>1</v>
       </c>
       <c r="D93" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E93" s="5">
         <f ca="1">IF(C93, COUNTIF(Extraction!A:A, A93), "-")</f>
@@ -4320,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C93), NOT(F93)), " ", IF(D93="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H93" s="8" t="str">
@@ -4342,8 +4151,8 @@
         <v>0</v>
       </c>
       <c r="D94" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E94" s="5" t="str">
         <f ca="1">IF(C94, COUNTIF(Extraction!A:A, A94), "-")</f>
@@ -4354,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C94), NOT(F94)), " ", IF(D94="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H94" s="8" t="str">
@@ -4376,8 +4185,8 @@
         <v>0</v>
       </c>
       <c r="D95" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E95" s="5" t="str">
         <f ca="1">IF(C95, COUNTIF(Extraction!A:A, A95), "-")</f>
@@ -4388,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C95), NOT(F95)), " ", IF(D95="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H95" s="8" t="str">
@@ -4410,8 +4219,8 @@
         <v>1</v>
       </c>
       <c r="D96" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E96" s="5">
         <f ca="1">IF(C96, COUNTIF(Extraction!A:A, A96), "-")</f>
@@ -4422,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C96), NOT(F96)), " ", IF(D96="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H96" s="8" t="str">
@@ -4444,8 +4253,8 @@
         <v>1</v>
       </c>
       <c r="D97" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E97" s="5">
         <f ca="1">IF(C97, COUNTIF(Extraction!A:A, A97), "-")</f>
@@ -4456,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C97), NOT(F97)), " ", IF(D97="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H97" s="8" t="str">
@@ -4478,8 +4287,8 @@
         <v>1</v>
       </c>
       <c r="D98" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E98" s="5">
         <f ca="1">IF(C98, COUNTIF(Extraction!A:A, A98), "-")</f>
@@ -4490,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C98), NOT(F98)), " ", IF(D98="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H98" s="8" t="str">
@@ -4512,8 +4321,8 @@
         <v>0</v>
       </c>
       <c r="D99" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E99" s="5" t="str">
         <f ca="1">IF(C99, COUNTIF(Extraction!A:A, A99), "-")</f>
@@ -4524,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C99), NOT(F99)), " ", IF(D99="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H99" s="8" t="str">
@@ -4546,8 +4355,8 @@
         <v>1</v>
       </c>
       <c r="D100" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E100" s="5">
         <f ca="1">IF(C100, COUNTIF(Extraction!A:A, A100), "-")</f>
@@ -4558,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C100), NOT(F100)), " ", IF(D100="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H100" s="8" t="str">
@@ -4580,8 +4389,8 @@
         <v>1</v>
       </c>
       <c r="D101" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E101" s="5">
         <f ca="1">IF(C101, COUNTIF(Extraction!A:A, A101), "-")</f>
@@ -4592,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C101), NOT(F101)), " ", IF(D101="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H101" s="8" t="str">
@@ -4614,8 +4423,8 @@
         <v>0</v>
       </c>
       <c r="D102" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E102" s="5" t="str">
         <f ca="1">IF(C102, COUNTIF(Extraction!A:A, A102), "-")</f>
@@ -4626,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C102), NOT(F102)), " ", IF(D102="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H102" s="8" t="str">
@@ -4648,8 +4457,8 @@
         <v>0</v>
       </c>
       <c r="D103" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E103" s="5" t="str">
         <f ca="1">IF(C103, COUNTIF(Extraction!A:A, A103), "-")</f>
@@ -4660,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C103), NOT(F103)), " ", IF(D103="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H103" s="8" t="str">
@@ -4682,8 +4491,8 @@
         <v>0</v>
       </c>
       <c r="D104" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E104" s="5" t="str">
         <f ca="1">IF(C104, COUNTIF(Extraction!A:A, A104), "-")</f>
@@ -4694,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C104), NOT(F104)), " ", IF(D104="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H104" s="8" t="str">
@@ -4716,8 +4525,8 @@
         <v>0</v>
       </c>
       <c r="D105" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E105" s="5" t="str">
         <f ca="1">IF(C105, COUNTIF(Extraction!A:A, A105), "-")</f>
@@ -4728,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C105), NOT(F105)), " ", IF(D105="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H105" s="8" t="str">
@@ -4750,8 +4559,8 @@
         <v>0</v>
       </c>
       <c r="D106" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E106" s="5" t="str">
         <f ca="1">IF(C106, COUNTIF(Extraction!A:A, A106), "-")</f>
@@ -4762,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C106), NOT(F106)), " ", IF(D106="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H106" s="8" t="str">
@@ -4784,8 +4593,8 @@
         <v>0</v>
       </c>
       <c r="D107" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E107" s="5" t="str">
         <f ca="1">IF(C107, COUNTIF(Extraction!A:A, A107), "-")</f>
@@ -4796,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C107), NOT(F107)), " ", IF(D107="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H107" s="8" t="str">
@@ -4818,8 +4627,8 @@
         <v>1</v>
       </c>
       <c r="D108" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E108" s="5">
         <f ca="1">IF(C108, COUNTIF(Extraction!A:A, A108), "-")</f>
@@ -4830,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C108), NOT(F108)), " ", IF(D108="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H108" s="8" t="str">
@@ -4852,8 +4661,8 @@
         <v>0</v>
       </c>
       <c r="D109" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E109" s="5" t="str">
         <f ca="1">IF(C109, COUNTIF(Extraction!A:A, A109), "-")</f>
@@ -4864,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C109), NOT(F109)), " ", IF(D109="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H109" s="8" t="str">
@@ -4886,8 +4695,8 @@
         <v>1</v>
       </c>
       <c r="D110" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E110" s="5">
         <f ca="1">IF(C110, COUNTIF(Extraction!A:A, A110), "-")</f>
@@ -4898,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C110), NOT(F110)), " ", IF(D110="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H110" s="8" t="str">
@@ -4920,8 +4729,8 @@
         <v>0</v>
       </c>
       <c r="D111" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E111" s="5" t="str">
         <f ca="1">IF(C111, COUNTIF(Extraction!A:A, A111), "-")</f>
@@ -4932,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C111), NOT(F111)), " ", IF(D111="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H111" s="8" t="str">
@@ -4954,8 +4763,8 @@
         <v>0</v>
       </c>
       <c r="D112" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E112" s="5" t="str">
         <f ca="1">IF(C112, COUNTIF(Extraction!A:A, A112), "-")</f>
@@ -4966,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C112), NOT(F112)), " ", IF(D112="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H112" s="8" t="str">
@@ -4988,8 +4797,8 @@
         <v>1</v>
       </c>
       <c r="D113" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E113" s="5">
         <f ca="1">IF(C113, COUNTIF(Extraction!A:A, A113), "-")</f>
@@ -5000,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C113), NOT(F113)), " ", IF(D113="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H113" s="8" t="str">
@@ -5022,8 +4831,8 @@
         <v>0</v>
       </c>
       <c r="D114" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E114" s="5" t="str">
         <f ca="1">IF(C114, COUNTIF(Extraction!A:A, A114), "-")</f>
@@ -5034,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C114), NOT(F114)), " ", IF(D114="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H114" s="8" t="str">
@@ -5056,8 +4865,8 @@
         <v>0</v>
       </c>
       <c r="D115" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E115" s="5" t="str">
         <f ca="1">IF(C115, COUNTIF(Extraction!A:A, A115), "-")</f>
@@ -5068,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C115), NOT(F115)), " ", IF(D115="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H115" s="8" t="str">
@@ -5090,8 +4899,8 @@
         <v>0</v>
       </c>
       <c r="D116" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E116" s="5" t="str">
         <f ca="1">IF(C116, COUNTIF(Extraction!A:A, A116), "-")</f>
@@ -5102,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C116), NOT(F116)), " ", IF(D116="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H116" s="8" t="str">
@@ -5124,8 +4933,8 @@
         <v>1</v>
       </c>
       <c r="D117" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E117" s="5">
         <f ca="1">IF(C117, COUNTIF(Extraction!A:A, A117), "-")</f>
@@ -5136,8 +4945,8 @@
         <v>1</v>
       </c>
       <c r="G117" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>dfu</v>
+        <f ca="1">IF(OR(NOT(C117), NOT(F117)), " ", IF(D117="rater1","rater2","rater1"))</f>
+        <v>rater2</v>
       </c>
       <c r="H117" s="8">
         <f ca="1">IF(AND(C117,F117), COUNTIF(Overlap!A:A, A117), "-")</f>
@@ -5158,8 +4967,8 @@
         <v>0</v>
       </c>
       <c r="D118" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E118" s="5" t="str">
         <f ca="1">IF(C118, COUNTIF(Extraction!A:A, A118), "-")</f>
@@ -5170,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C118), NOT(F118)), " ", IF(D118="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H118" s="8" t="str">
@@ -5192,8 +5001,8 @@
         <v>0</v>
       </c>
       <c r="D119" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E119" s="5" t="str">
         <f ca="1">IF(C119, COUNTIF(Extraction!A:A, A119), "-")</f>
@@ -5204,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C119), NOT(F119)), " ", IF(D119="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H119" s="8" t="str">
@@ -5226,8 +5035,8 @@
         <v>1</v>
       </c>
       <c r="D120" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E120" s="5">
         <f ca="1">IF(C120, COUNTIF(Extraction!A:A, A120), "-")</f>
@@ -5238,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C120), NOT(F120)), " ", IF(D120="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H120" s="8" t="str">
@@ -5260,8 +5069,8 @@
         <v>0</v>
       </c>
       <c r="D121" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E121" s="5" t="str">
         <f ca="1">IF(C121, COUNTIF(Extraction!A:A, A121), "-")</f>
@@ -5272,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C121), NOT(F121)), " ", IF(D121="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H121" s="8" t="str">
@@ -5294,8 +5103,8 @@
         <v>0</v>
       </c>
       <c r="D122" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E122" s="5" t="str">
         <f ca="1">IF(C122, COUNTIF(Extraction!A:A, A122), "-")</f>
@@ -5306,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C122), NOT(F122)), " ", IF(D122="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H122" s="8" t="str">
@@ -5328,8 +5137,8 @@
         <v>0</v>
       </c>
       <c r="D123" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E123" s="5" t="str">
         <f ca="1">IF(C123, COUNTIF(Extraction!A:A, A123), "-")</f>
@@ -5340,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C123), NOT(F123)), " ", IF(D123="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H123" s="8" t="str">
@@ -5362,8 +5171,8 @@
         <v>0</v>
       </c>
       <c r="D124" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E124" s="5" t="str">
         <f ca="1">IF(C124, COUNTIF(Extraction!A:A, A124), "-")</f>
@@ -5374,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C124), NOT(F124)), " ", IF(D124="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H124" s="8" t="str">
@@ -5396,8 +5205,8 @@
         <v>0</v>
       </c>
       <c r="D125" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E125" s="5" t="str">
         <f ca="1">IF(C125, COUNTIF(Extraction!A:A, A125), "-")</f>
@@ -5408,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C125), NOT(F125)), " ", IF(D125="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H125" s="8" t="str">
@@ -5430,8 +5239,8 @@
         <v>0</v>
       </c>
       <c r="D126" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E126" s="5" t="str">
         <f ca="1">IF(C126, COUNTIF(Extraction!A:A, A126), "-")</f>
@@ -5442,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C126), NOT(F126)), " ", IF(D126="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H126" s="8" t="str">
@@ -5464,8 +5273,8 @@
         <v>0</v>
       </c>
       <c r="D127" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E127" s="5" t="str">
         <f ca="1">IF(C127, COUNTIF(Extraction!A:A, A127), "-")</f>
@@ -5476,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C127), NOT(F127)), " ", IF(D127="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H127" s="8" t="str">
@@ -5498,8 +5307,8 @@
         <v>0</v>
       </c>
       <c r="D128" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E128" s="5" t="str">
         <f ca="1">IF(C128, COUNTIF(Extraction!A:A, A128), "-")</f>
@@ -5510,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C128), NOT(F128)), " ", IF(D128="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H128" s="8" t="str">
@@ -5532,8 +5341,8 @@
         <v>0</v>
       </c>
       <c r="D129" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E129" s="5" t="str">
         <f ca="1">IF(C129, COUNTIF(Extraction!A:A, A129), "-")</f>
@@ -5544,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C129), NOT(F129)), " ", IF(D129="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H129" s="8" t="str">
@@ -5566,8 +5375,8 @@
         <v>0</v>
       </c>
       <c r="D130" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E130" s="5" t="str">
         <f ca="1">IF(C130, COUNTIF(Extraction!A:A, A130), "-")</f>
@@ -5578,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C130), NOT(F130)), " ", IF(D130="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H130" s="8" t="str">
@@ -5600,8 +5409,8 @@
         <v>0</v>
       </c>
       <c r="D131" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E131" s="5" t="str">
         <f ca="1">IF(C131, COUNTIF(Extraction!A:A, A131), "-")</f>
@@ -5612,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C131), NOT(F131)), " ", IF(D131="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H131" s="8" t="str">
@@ -5634,8 +5443,8 @@
         <v>0</v>
       </c>
       <c r="D132" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E132" s="5" t="str">
         <f ca="1">IF(C132, COUNTIF(Extraction!A:A, A132), "-")</f>
@@ -5646,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C132), NOT(F132)), " ", IF(D132="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H132" s="8" t="str">
@@ -5668,8 +5477,8 @@
         <v>0</v>
       </c>
       <c r="D133" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E133" s="5" t="str">
         <f ca="1">IF(C133, COUNTIF(Extraction!A:A, A133), "-")</f>
@@ -5680,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C133), NOT(F133)), " ", IF(D133="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H133" s="8" t="str">
@@ -5702,8 +5511,8 @@
         <v>0</v>
       </c>
       <c r="D134" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E134" s="5" t="str">
         <f ca="1">IF(C134, COUNTIF(Extraction!A:A, A134), "-")</f>
@@ -5714,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C134), NOT(F134)), " ", IF(D134="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H134" s="8" t="str">
@@ -5736,8 +5545,8 @@
         <v>0</v>
       </c>
       <c r="D135" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dfu")</f>
-        <v>dfu</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater2")</f>
+        <v>rater2</v>
       </c>
       <c r="E135" s="5" t="str">
         <f ca="1">IF(C135, COUNTIF(Extraction!A:A, A135), "-")</f>
@@ -5748,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C135), NOT(F135)), " ", IF(D135="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H135" s="8" t="str">
@@ -5770,8 +5579,8 @@
         <v>0</v>
       </c>
       <c r="D136" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E136" s="5" t="str">
         <f ca="1">IF(C136, COUNTIF(Extraction!A:A, A136), "-")</f>
@@ -5782,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C136), NOT(F136)), " ", IF(D136="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H136" s="8" t="str">
@@ -5804,8 +5613,8 @@
         <v>0</v>
       </c>
       <c r="D137" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jfr")</f>
-        <v>jfr</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rater1")</f>
+        <v>rater1</v>
       </c>
       <c r="E137" s="5" t="str">
         <f ca="1">IF(C137, COUNTIF(Extraction!A:A, A137), "-")</f>
@@ -5816,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OR(NOT(C137), NOT(F137)), " ", IF(D137="rater1","rater2","rater1"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H137" s="8" t="str">
@@ -5879,7 +5688,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5900,61 +5709,61 @@
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="48" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="48" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="50"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -5965,52 +5774,52 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>144</v>
+        <v>111</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>15</v>
@@ -6022,50 +5831,50 @@
       </c>
       <c r="B4" s="8" t="str">
         <f ca="1">IF(ISBLANK(A4), "", VLOOKUP(A4, Studies!A:D, 4))</f>
-        <v>dfu</v>
+        <v>rater2</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="6"/>
@@ -6076,55 +5885,55 @@
       </c>
       <c r="B5" s="8" t="str">
         <f ca="1">IF(ISBLANK(A5), "", VLOOKUP(A5, Studies!A:D, 4))</f>
-        <v>jfr</v>
+        <v>rater1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G5" s="6">
         <v>105</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="Q5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="S5" s="6"/>
     </row>
@@ -6134,54 +5943,54 @@
       </c>
       <c r="B6" s="8" t="str">
         <f ca="1">IF(ISBLANK(A6), "", VLOOKUP(A6, Studies!A:D, 4))</f>
-        <v>dfu</v>
+        <v>rater2</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="G6" s="6">
         <v>21</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="J6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="M6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -6190,48 +5999,48 @@
       </c>
       <c r="B7" s="8" t="str">
         <f ca="1">IF(ISBLANK(A7), "", VLOOKUP(A7, Studies!A:D, 4))</f>
-        <v>dfu</v>
+        <v>rater2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="G7" s="6">
         <v>18</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="6"/>
@@ -6242,50 +6051,50 @@
       </c>
       <c r="B8" s="8" t="str">
         <f ca="1">IF(ISBLANK(A8), "", VLOOKUP(A8, Studies!A:D, 4))</f>
-        <v>dfu</v>
+        <v>rater2</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="G8" s="6">
         <v>24</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="6"/>
@@ -6296,54 +6105,54 @@
       </c>
       <c r="B9" s="8" t="str">
         <f ca="1">IF(ISBLANK(A9), "", VLOOKUP(A9, Studies!A:D, 4))</f>
-        <v>jfr</v>
+        <v>rater1</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="G9" s="6">
         <v>14</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -6352,56 +6161,56 @@
       </c>
       <c r="B10" s="8" t="str">
         <f ca="1">IF(ISBLANK(A10), "", VLOOKUP(A10, Studies!A:D, 4))</f>
-        <v>jfr</v>
+        <v>rater1</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="G10" s="6">
         <v>18</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="O10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="Q10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -6410,53 +6219,53 @@
       </c>
       <c r="B11" s="8" t="str">
         <f ca="1">IF(ISBLANK(A11), "", VLOOKUP(A11, Studies!A:D, 4))</f>
-        <v>jfr</v>
+        <v>rater1</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="G11" s="6">
         <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="O11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="Q11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="S11" s="6"/>
     </row>
@@ -6466,53 +6275,53 @@
       </c>
       <c r="B12" s="8" t="str">
         <f ca="1">IF(ISBLANK(A12), "", VLOOKUP(A12, Studies!A:D, 4))</f>
-        <v>jfr</v>
+        <v>rater1</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="G12" s="6">
         <v>11</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="O12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="Q12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="S12" s="6"/>
     </row>
@@ -9255,37 +9064,37 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{073F4C58-C1A9-4492-9A7C-C5DB1635329B}">
           <x14:formula1>
-            <xm:f>CategoriesMethod!$A$2:$A155</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I4:I7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{D44CC31F-0E55-4D96-97AD-D292AD270879}">
           <x14:formula1>
-            <xm:f>CategoriesMethod!$A$2:$A160</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I8:I154</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{1DAC8103-41B2-47F7-BF7A-58541B614BC0}">
           <x14:formula1>
-            <xm:f>CategoriesTesttype!$A$2:$A155</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{80AB2DD4-D39A-4F4A-A39A-019DD8450586}">
           <x14:formula1>
-            <xm:f>CategoriesTesttype!$A$2:$A160</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J8:J154</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{EC2E614D-A2B8-4A85-88A3-A922BE03163F}">
           <x14:formula1>
-            <xm:f>CategoriesSubjects!$A$2:$A155</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H4:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{07BDD346-8D30-480D-95CC-A288506144DC}">
           <x14:formula1>
-            <xm:f>CategoriesSubjects!$A$2:$A160</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H8:H154</xm:sqref>
         </x14:dataValidation>
@@ -9303,10 +9112,10 @@
   <dimension ref="A1:S152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9330,61 +9139,61 @@
     <row r="1" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="48" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="48" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="50"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
@@ -9395,52 +9204,52 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>144</v>
+        <v>111</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>15</v>
@@ -9451,55 +9260,55 @@
         <v>6</v>
       </c>
       <c r="B4" s="8" t="str">
-        <f ca="1">IF(ISBLANK(A4), "", IF(VLOOKUP(A4, Studies!A:D, 2)="jfr", "dfu", "jfr"))</f>
-        <v>jfr</v>
+        <f ca="1">IF(ISBLANK(A4), "", IF(VLOOKUP(A4, Studies!A:D, 2)="rater1", "rater2", "rater1"))</f>
+        <v>rater1</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="39.6" x14ac:dyDescent="0.25">
@@ -9507,55 +9316,55 @@
         <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="G5" s="6">
         <v>105</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="Q5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="S5" s="6"/>
     </row>
@@ -9564,55 +9373,55 @@
         <v>14</v>
       </c>
       <c r="B6" s="8" t="str">
-        <f ca="1">IF(ISBLANK(A6), "", IF(VLOOKUP(A6, Studies!A:D, 2)="jfr", "dfu", "jfr"))</f>
-        <v>jfr</v>
+        <f ca="1">IF(ISBLANK(A6), "", IF(VLOOKUP(A6, Studies!A:D, 2)="rater1", "rater2", "rater1"))</f>
+        <v>rater1</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="G6" s="6">
         <v>21</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="J6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="M6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="79.2" x14ac:dyDescent="0.25">
@@ -9620,53 +9429,53 @@
         <v>48</v>
       </c>
       <c r="B7" s="8" t="str">
-        <f ca="1">IF(ISBLANK(A7), "", IF(VLOOKUP(A7, Studies!A:D, 2)="jfr", "dfu", "jfr"))</f>
-        <v>jfr</v>
+        <f ca="1">IF(ISBLANK(A7), "", IF(VLOOKUP(A7, Studies!A:D, 2)="rater1", "rater2", "rater1"))</f>
+        <v>rater1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="6">
         <v>18</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
@@ -9674,49 +9483,49 @@
         <v>71</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f ca="1">IF(ISBLANK(A8), "", IF(VLOOKUP(A8, Studies!A:D, 2)="jfr", "dfu", "jfr"))</f>
-        <v>jfr</v>
+        <f ca="1">IF(ISBLANK(A8), "", IF(VLOOKUP(A8, Studies!A:D, 2)="rater1", "rater2", "rater1"))</f>
+        <v>rater1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6">
         <v>24</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="6"/>
@@ -9726,218 +9535,218 @@
         <v>77</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="G9" s="6">
         <v>14</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
+      <c r="A10" s="18">
         <v>116</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="G10" s="18">
+        <v>18</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="37">
-        <v>18</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="43" t="s">
+      <c r="Q10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>116</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="18">
+        <v>10</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="S10" s="39"/>
-    </row>
-    <row r="11" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37">
+      <c r="O11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
         <v>116</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="39" t="s">
+      <c r="B12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="G12" s="18">
+        <v>11</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="37">
-        <v>10</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="R11" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="S11" s="39"/>
-    </row>
-    <row r="12" spans="1:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37">
-        <v>116</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="Q12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="37">
-        <v>11</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="S12" s="39"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -12779,37 +12588,37 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{2B70BF8B-5E01-47CB-9162-FA992D914D6D}">
           <x14:formula1>
-            <xm:f>CategoriesMethod!$A$2:$A158</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I13:I152 I8:I9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{67364343-0C37-4F15-BF25-F3FFB0394B92}">
           <x14:formula1>
-            <xm:f>CategoriesTesttype!$A$2:$A158</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J13:J152 J8:J9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{BA3F6FE9-EBB2-469A-9A33-10767DDBC5D5}">
           <x14:formula1>
-            <xm:f>CategoriesSubjects!$A$2:$A158</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H13:H152 H8:H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{10C920C0-13D7-4795-AD0F-F55F3727E73C}">
           <x14:formula1>
-            <xm:f>CategoriesMethod!$A$2:$A153</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I4:I7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{31790532-A3DC-4C2B-9CB6-A77591A66FA5}">
           <x14:formula1>
-            <xm:f>CategoriesTesttype!$A$2:$A153</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{682CB3F6-8F2D-4B32-9E94-1E068FF624EC}">
           <x14:formula1>
-            <xm:f>CategoriesSubjects!$A$2:$A153</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H4:H7</xm:sqref>
         </x14:dataValidation>
@@ -12817,620 +12626,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="3" max="14" width="7.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="20">
-        <f ca="1">SUMPRODUCT((Studies!D:D = A3) * (Studies!C:C = TRUE))</f>
-        <v>28</v>
-      </c>
-      <c r="D3" s="21">
-        <f ca="1">SUMPRODUCT((Studies!G:G=A3) * (Studies!C:C = TRUE))</f>
-        <v>4</v>
-      </c>
-      <c r="E3" s="22">
-        <f t="shared" ref="E3:E5" ca="1" si="0">C3+D3</f>
-        <v>32</v>
-      </c>
-      <c r="F3" s="20">
-        <f ca="1">SUMPRODUCT((Studies!D:D = A3) * (Studies!C:C = TRUE) * (Studies!E:E &gt; 0))</f>
-        <v>3</v>
-      </c>
-      <c r="G3" s="21">
-        <f ca="1">SUMPRODUCT((Studies!G:G = A3) * (Studies!C:C = TRUE) * (Studies!H:H &gt; 0))</f>
-        <v>4</v>
-      </c>
-      <c r="H3" s="22">
-        <f t="shared" ref="H3:H5" ca="1" si="1">F3+G3</f>
-        <v>7</v>
-      </c>
-      <c r="I3" s="23">
-        <f t="shared" ref="I3:K3" ca="1" si="2">F3/C3</f>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="J3" s="24">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K3" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21875</v>
-      </c>
-      <c r="L3" s="20">
-        <f t="shared" ref="L3:M3" ca="1" si="3">C3-F3</f>
-        <v>25</v>
-      </c>
-      <c r="M3" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="22">
-        <f t="shared" ref="N3:N5" ca="1" si="4">L3+M3</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="20">
-        <f ca="1">SUMPRODUCT((Studies!D:D = A4) * (Studies!C:C = TRUE))</f>
-        <v>30</v>
-      </c>
-      <c r="D4" s="21">
-        <f ca="1">SUMPRODUCT((Studies!G:G=A4) * (Studies!C:C = TRUE))</f>
-        <v>4</v>
-      </c>
-      <c r="E4" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="F4" s="20">
-        <f ca="1">SUMPRODUCT((Studies!D:D = A4) * (Studies!C:C = TRUE) * (Studies!E:E &gt; 0))</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="21">
-        <f ca="1">SUMPRODUCT((Studies!G:G = A4) * (Studies!C:C = TRUE) * (Studies!H:H &gt; 0))</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I4" s="23">
-        <f t="shared" ref="I4:K4" ca="1" si="5">F4/C4</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J4" s="24">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
-      </c>
-      <c r="K4" s="25">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.20588235294117646</v>
-      </c>
-      <c r="L4" s="20">
-        <f t="shared" ref="L4:M4" ca="1" si="6">C4-F4</f>
-        <v>26</v>
-      </c>
-      <c r="M4" s="21">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="27">
-        <f t="shared" ref="C5:D5" ca="1" si="7">SUM(C3:C4)</f>
-        <v>58</v>
-      </c>
-      <c r="D5" s="28">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="E5" s="29">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="F5" s="27">
-        <f t="shared" ref="F5:G5" ca="1" si="8">SUM(F3:F4)</f>
-        <v>7</v>
-      </c>
-      <c r="G5" s="28">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="H5" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="I5" s="30">
-        <f t="shared" ref="I5:M5" ca="1" si="9">SUM(I3:I4)</f>
-        <v>0.24047619047619045</v>
-      </c>
-      <c r="J5" s="31">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.75</v>
-      </c>
-      <c r="K5" s="32">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.42463235294117646</v>
-      </c>
-      <c r="L5" s="27">
-        <f t="shared" ca="1" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="M5" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N5" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="C3/2"/>
-        <cfvo type="formula" val="C3"/>
-        <color rgb="FF990000"/>
-        <color rgb="FFF1C232"/>
-        <color rgb="FF38761D"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="C4/2"/>
-        <cfvo type="formula" val="C4"/>
-        <color rgb="FF990000"/>
-        <color rgb="FFF1C232"/>
-        <color rgb="FF38761D"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="formula" val="D3"/>
-        <color rgb="FF990000"/>
-        <color rgb="FFF1C232"/>
-        <color rgb="FF38761D"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="D4/2"/>
-        <cfvo type="formula" val="D4"/>
-        <color rgb="FF990000"/>
-        <color rgb="FFF1C232"/>
-        <color rgb="FF38761D"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="62.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
-        <f>COUNTIF(Extraction!I:I, A2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5">
-        <f>COUNTIF(Extraction!I:I, A3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5">
-        <f>COUNTIF(Extraction!I:I, A4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5">
-        <f>COUNTIF(Extraction!I:I, A5)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C5">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF9EC2E3"/>
-        <color rgb="FF3D85C6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="5">
-        <f>COUNTIF(Extraction!I:I, A2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="5">
-        <f>COUNTIF(Extraction!I:I, A3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="5">
-        <f>COUNTIF(Extraction!I:I, A4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="5">
-        <f>COUNTIF(Extraction!I:I, A5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="5">
-        <f>COUNTIF(Extraction!I:I, A6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="5">
-        <f>COUNTIF(Extraction!I:I, A7)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF9EC2E3"/>
-        <color rgb="FF3D85C6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
-        <f>COUNTIF(Extraction!J:J, A2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5">
-        <f>COUNTIF(Extraction!J:J, A3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5">
-        <f>COUNTIF(Extraction!J:J, A4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5">
-        <f>COUNTIF(Extraction!J:J, A5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5">
-        <f>COUNTIF(Extraction!J:J, A6)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C6">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF9EC2E3"/>
-        <color rgb="FF3D85C6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>